--- a/Words.xlsx
+++ b/Words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\ExVileEs-D\škola\Vejška\My_Projects\NJLearner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95058E-134C-49B5-93F1-47B0D44A1025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04933BD-C3C5-4ECE-BE79-474F3821BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>die Katze</t>
   </si>
@@ -58,13 +58,84 @@
   </si>
   <si>
     <t>Ceske_slovo</t>
+  </si>
+  <si>
+    <t>slon</t>
+  </si>
+  <si>
+    <r>
+      <t>der</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Elefant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>die</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Schildkröte</t>
+    </r>
+  </si>
+  <si>
+    <t>želva</t>
+  </si>
+  <si>
+    <r>
+      <t>der</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t> Papagei</t>
+    </r>
+  </si>
+  <si>
+    <t>papoušek</t>
+  </si>
+  <si>
+    <t>kůň</t>
+  </si>
+  <si>
+    <t>das Pferd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +143,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF5F6368"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF5F6368"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +202,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -375,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -394,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -405,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -416,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -427,7 +547,51 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04933BD-C3C5-4ECE-BE79-474F3821BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89B857-3A37-432C-AB91-59C3A14F316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>die Katze</t>
   </si>
@@ -63,22 +63,38 @@
     <t>slon</t>
   </si>
   <si>
+    <t>želva</t>
+  </si>
+  <si>
+    <t>papoušek</t>
+  </si>
+  <si>
+    <t>kůň</t>
+  </si>
+  <si>
+    <t>das Pferd</t>
+  </si>
+  <si>
     <r>
       <t>der</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Roboto"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Roboto"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Elefant</t>
     </r>
@@ -89,53 +105,55 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Roboto"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> </t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Roboto"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Schildkröte</t>
     </r>
   </si>
   <si>
-    <t>želva</t>
-  </si>
-  <si>
     <r>
       <t>der</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Roboto"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> Papagei</t>
     </r>
   </si>
   <si>
-    <t>papoušek</t>
-  </si>
-  <si>
-    <t>kůň</t>
-  </si>
-  <si>
-    <t>das Pferd</t>
+    <t>Pajda</t>
+  </si>
+  <si>
+    <t>das Phajda</t>
+  </si>
+  <si>
+    <t>human</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,35 +163,15 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF5F6368"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF5F6368"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,19 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -495,13 +485,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -547,23 +541,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -571,23 +565,36 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89B857-3A37-432C-AB91-59C3A14F316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E7BC2-C172-44A8-B937-43B1F388AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>die Katze</t>
   </si>
@@ -140,13 +140,112 @@
     </r>
   </si>
   <si>
-    <t>Pajda</t>
-  </si>
-  <si>
-    <t>das Phajda</t>
-  </si>
-  <si>
-    <t>human</t>
+    <t>jmenovat se</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>prosit</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>přijít</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>(po)těšit</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>děkovat</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>dělat - fyzicky?</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>doprovázet</t>
+  </si>
+  <si>
+    <t>begleinten</t>
+  </si>
+  <si>
+    <t>studovat</t>
+  </si>
+  <si>
+    <t>studieren</t>
+  </si>
+  <si>
+    <t>besuchen</t>
+  </si>
+  <si>
+    <t>navštívit</t>
+  </si>
+  <si>
+    <t>bydlet</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>říkat</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>představovat</t>
+  </si>
+  <si>
+    <t>vorstellen</t>
+  </si>
+  <si>
+    <t>arbeiten</t>
+  </si>
+  <si>
+    <t>dělat</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>chodit na tůry</t>
+  </si>
+  <si>
+    <t>kutit</t>
+  </si>
+  <si>
+    <t>basteln</t>
+  </si>
+  <si>
+    <t>dělat/činit</t>
+  </si>
+  <si>
+    <t>tun</t>
+  </si>
+  <si>
+    <t>učit se</t>
+  </si>
+  <si>
+    <t>lernen</t>
+  </si>
+  <si>
+    <t>plavat</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
   </si>
 </sst>
 </file>
@@ -485,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -594,7 +693,194 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E7BC2-C172-44A8-B937-43B1F388AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FF22F-F18D-43AB-A71E-FDE059C8C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>die Katze</t>
   </si>
@@ -246,6 +246,150 @@
   </si>
   <si>
     <t>schwimmen</t>
+  </si>
+  <si>
+    <t>stávat se</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>hrát</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>shledávat</t>
+  </si>
+  <si>
+    <t>finden</t>
+  </si>
+  <si>
+    <t>věřit/myslet si</t>
+  </si>
+  <si>
+    <t>glauben</t>
+  </si>
+  <si>
+    <t>myslet si</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>entschuldigen</t>
+  </si>
+  <si>
+    <t>omlouvit se</t>
+  </si>
+  <si>
+    <t>mluvit</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>přát si</t>
+  </si>
+  <si>
+    <t>wünschen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>aportovat</t>
+  </si>
+  <si>
+    <t>smět</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>čekat</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>rušit</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>vzít/brát</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>ambieten</t>
+  </si>
+  <si>
+    <t>nabídnout</t>
+  </si>
+  <si>
+    <t>umět/moci</t>
+  </si>
+  <si>
+    <t>können</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>(po)škodit</t>
+  </si>
+  <si>
+    <t>přinést</t>
+  </si>
+  <si>
+    <t>bringen</t>
+  </si>
+  <si>
+    <t>ochutnávat</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>gefallen</t>
+  </si>
+  <si>
+    <t>líbit se</t>
+  </si>
+  <si>
+    <t>slyšet</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>zdravit</t>
+  </si>
+  <si>
+    <t>grußen</t>
+  </si>
+  <si>
+    <t>táhnout</t>
+  </si>
+  <si>
+    <t>ziegen</t>
+  </si>
+  <si>
+    <t>ptát se</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>vidět</t>
+  </si>
+  <si>
+    <t>sehen</t>
   </si>
 </sst>
 </file>
@@ -584,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +1027,198 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FF22F-F18D-43AB-A71E-FDE059C8C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB406B5-C578-4317-9869-66C72D19CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>die Katze</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>gehen</t>
-  </si>
-  <si>
-    <t>sloveso</t>
   </si>
   <si>
     <t>pes</t>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>sehen</t>
+  </si>
+  <si>
+    <t>verbs</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,13 +742,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -775,21 +775,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -831,391 +831,463 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="C27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
+      <c r="C28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
+      <c r="C29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="C30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="C31" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB406B5-C578-4317-9869-66C72D19CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41ACAB2-1D72-47D4-8602-4FFB6F8216B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3030" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$C$52</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
   <si>
     <t>die Katze</t>
   </si>
@@ -212,9 +215,6 @@
     <t>arbeiten</t>
   </si>
   <si>
-    <t>dělat</t>
-  </si>
-  <si>
     <t>wandern</t>
   </si>
   <si>
@@ -323,9 +323,6 @@
     <t>nehmen</t>
   </si>
   <si>
-    <t>ambieten</t>
-  </si>
-  <si>
     <t>nabídnout</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>bringen</t>
   </si>
   <si>
-    <t>ochutnávat</t>
-  </si>
-  <si>
     <t>schmecken</t>
   </si>
   <si>
@@ -390,6 +384,249 @@
   </si>
   <si>
     <t>verbs</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>dostat</t>
+  </si>
+  <si>
+    <t>bekommen</t>
+  </si>
+  <si>
+    <t>pracovat</t>
+  </si>
+  <si>
+    <t>anbieten</t>
+  </si>
+  <si>
+    <t>ochutnat</t>
+  </si>
+  <si>
+    <t>ukázat</t>
+  </si>
+  <si>
+    <t>začínat</t>
+  </si>
+  <si>
+    <t>končit</t>
+  </si>
+  <si>
+    <t>dávat pozor</t>
+  </si>
+  <si>
+    <t>měl by</t>
+  </si>
+  <si>
+    <t>zopakovat</t>
+  </si>
+  <si>
+    <t>hledat</t>
+  </si>
+  <si>
+    <t>zapomenout</t>
+  </si>
+  <si>
+    <t>připravovat</t>
+  </si>
+  <si>
+    <t>opravovat</t>
+  </si>
+  <si>
+    <t>číst</t>
+  </si>
+  <si>
+    <t>rozumět/chápat</t>
+  </si>
+  <si>
+    <t>myslet</t>
+  </si>
+  <si>
+    <t>zotročit</t>
+  </si>
+  <si>
+    <t>psát</t>
+  </si>
+  <si>
+    <t>odpovídat</t>
+  </si>
+  <si>
+    <t>řešit</t>
+  </si>
+  <si>
+    <t>zpívat</t>
+  </si>
+  <si>
+    <t>chtít</t>
+  </si>
+  <si>
+    <t>doporučit</t>
+  </si>
+  <si>
+    <t>vybrat</t>
+  </si>
+  <si>
+    <t>pít</t>
+  </si>
+  <si>
+    <t>objednat</t>
+  </si>
+  <si>
+    <t>slavit</t>
+  </si>
+  <si>
+    <t>pobývat</t>
+  </si>
+  <si>
+    <t>doplnit/přidat</t>
+  </si>
+  <si>
+    <t>přemístit</t>
+  </si>
+  <si>
+    <t>vypadat/vyhlížet</t>
+  </si>
+  <si>
+    <t>vést</t>
+  </si>
+  <si>
+    <t>spát</t>
+  </si>
+  <si>
+    <t>stát/vydržet</t>
+  </si>
+  <si>
+    <t>odložit si/vykonat</t>
+  </si>
+  <si>
+    <t>sedět</t>
+  </si>
+  <si>
+    <t>vědět</t>
+  </si>
+  <si>
+    <t>platit</t>
+  </si>
+  <si>
+    <t>pomáhat</t>
+  </si>
+  <si>
+    <t>narodit se</t>
+  </si>
+  <si>
+    <t>beginnen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>aufpasen</t>
+  </si>
+  <si>
+    <t>sollen</t>
+  </si>
+  <si>
+    <t>wiederholen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>vergessen</t>
+  </si>
+  <si>
+    <t>vorbereiten</t>
+  </si>
+  <si>
+    <t>korrigieren</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>verstehen</t>
+  </si>
+  <si>
+    <t>denken</t>
+  </si>
+  <si>
+    <t>erkläven</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>antworten</t>
+  </si>
+  <si>
+    <t>sdělit</t>
+  </si>
+  <si>
+    <t>erzahlen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>singen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>empfehlen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>trinken</t>
+  </si>
+  <si>
+    <t>bestellen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>ergänzen</t>
+  </si>
+  <si>
+    <t>umziehen</t>
+  </si>
+  <si>
+    <t>aussehen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>stehen</t>
+  </si>
+  <si>
+    <t>ablegen</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>wissen</t>
+  </si>
+  <si>
+    <t>bezahlen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>geboren</t>
   </si>
 </sst>
 </file>
@@ -728,15 +965,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -781,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,7 +1129,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,7 +1151,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +1173,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +1184,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,340 +1195,770 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41ACAB2-1D72-47D4-8602-4FFB6F8216B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE88D185-3C7E-495B-A57E-48E7DD654121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3030" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="664">
   <si>
     <t>die Katze</t>
   </si>
@@ -628,12 +628,1461 @@
   <si>
     <t>geboren</t>
   </si>
+  <si>
+    <t>etw. anhaben</t>
+  </si>
+  <si>
+    <t>etw. anprobieren</t>
+  </si>
+  <si>
+    <t>auffalen</t>
+  </si>
+  <si>
+    <t>auswandern</t>
+  </si>
+  <si>
+    <t>etw. bedrucken</t>
+  </si>
+  <si>
+    <t>jdn. beeindrucken</t>
+  </si>
+  <si>
+    <t>sich bewegen</t>
+  </si>
+  <si>
+    <t>beurteilen</t>
+  </si>
+  <si>
+    <t>bügeln</t>
+  </si>
+  <si>
+    <t>erkennen</t>
+  </si>
+  <si>
+    <t>färben</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>sich genieren</t>
+  </si>
+  <si>
+    <t>sich kämmen</t>
+  </si>
+  <si>
+    <t>kaputtgehen</t>
+  </si>
+  <si>
+    <t>sich kümmern um</t>
+  </si>
+  <si>
+    <t>nachdenken über</t>
+  </si>
+  <si>
+    <t>verbrennen</t>
+  </si>
+  <si>
+    <t>vergleichen</t>
+  </si>
+  <si>
+    <t>verlassen</t>
+  </si>
+  <si>
+    <t>sich verstecken</t>
+  </si>
+  <si>
+    <t>wegschneiden</t>
+  </si>
+  <si>
+    <t>zugeben</t>
+  </si>
+  <si>
+    <t>der Absatz</t>
+  </si>
+  <si>
+    <t>das Austreten</t>
+  </si>
+  <si>
+    <t>das Äusere</t>
+  </si>
+  <si>
+    <t>die Ausstrahlung</t>
+  </si>
+  <si>
+    <t>der Baumwollstoff</t>
+  </si>
+  <si>
+    <t>das Dicksein</t>
+  </si>
+  <si>
+    <t>der Dressman</t>
+  </si>
+  <si>
+    <t>die Ehrlichkeit</t>
+  </si>
+  <si>
+    <t>die Entstehung</t>
+  </si>
+  <si>
+    <t>der Fingernagel</t>
+  </si>
+  <si>
+    <t>das Gesicht</t>
+  </si>
+  <si>
+    <t>das Gewicht</t>
+  </si>
+  <si>
+    <t>die Grösse</t>
+  </si>
+  <si>
+    <t>der Händler</t>
+  </si>
+  <si>
+    <t>die Haut</t>
+  </si>
+  <si>
+    <t>die Hilfsbereitschaft</t>
+  </si>
+  <si>
+    <t>das Lächeln</t>
+  </si>
+  <si>
+    <t>der Lippenstift</t>
+  </si>
+  <si>
+    <t>das Jahrhundert</t>
+  </si>
+  <si>
+    <t>der Konkurrenzdruck</t>
+  </si>
+  <si>
+    <t>die Kundin</t>
+  </si>
+  <si>
+    <t>das Model</t>
+  </si>
+  <si>
+    <t>das Muskelpaket</t>
+  </si>
+  <si>
+    <t>die Persönlichkeit</t>
+  </si>
+  <si>
+    <t>der Pferdeschwanz</t>
+  </si>
+  <si>
+    <t>der Pickel</t>
+  </si>
+  <si>
+    <t>der Rat(-släge)</t>
+  </si>
+  <si>
+    <t>der Reissverschluss</t>
+  </si>
+  <si>
+    <t>das Schaufenster</t>
+  </si>
+  <si>
+    <t>der Schneider</t>
+  </si>
+  <si>
+    <t>die Schönheit</t>
+  </si>
+  <si>
+    <t>das Selbstbewusstsein</t>
+  </si>
+  <si>
+    <t>das Selbstwertgefühl</t>
+  </si>
+  <si>
+    <t>der Stifel</t>
+  </si>
+  <si>
+    <t>der Traumberuf</t>
+  </si>
+  <si>
+    <t>die Verabreden</t>
+  </si>
+  <si>
+    <t>das Verhalten</t>
+  </si>
+  <si>
+    <t>das Vorbild</t>
+  </si>
+  <si>
+    <t>der Zahn</t>
+  </si>
+  <si>
+    <t>auffallend</t>
+  </si>
+  <si>
+    <t>auffälig</t>
+  </si>
+  <si>
+    <t>ausdrucksvoll</t>
+  </si>
+  <si>
+    <t>ausgefallen</t>
+  </si>
+  <si>
+    <t>bequem</t>
+  </si>
+  <si>
+    <t>dreckig</t>
+  </si>
+  <si>
+    <t>dick</t>
+  </si>
+  <si>
+    <t>draussen</t>
+  </si>
+  <si>
+    <t>dünn</t>
+  </si>
+  <si>
+    <t>echt</t>
+  </si>
+  <si>
+    <t>eingebildet</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>erstaunt</t>
+  </si>
+  <si>
+    <t>faltenlos</t>
+  </si>
+  <si>
+    <t>faszinierend</t>
+  </si>
+  <si>
+    <t>gechminkt</t>
+  </si>
+  <si>
+    <t>gestreift</t>
+  </si>
+  <si>
+    <t>gesund</t>
+  </si>
+  <si>
+    <t>hässlich</t>
+  </si>
+  <si>
+    <t>hilfsbereit</t>
+  </si>
+  <si>
+    <t>kräftig</t>
+  </si>
+  <si>
+    <t>nützlich</t>
+  </si>
+  <si>
+    <t>reich</t>
+  </si>
+  <si>
+    <t>sauber</t>
+  </si>
+  <si>
+    <t>schlank</t>
+  </si>
+  <si>
+    <t>spitz</t>
+  </si>
+  <si>
+    <t>strahlend</t>
+  </si>
+  <si>
+    <t>süss</t>
+  </si>
+  <si>
+    <t>unbedingt</t>
+  </si>
+  <si>
+    <t>ungepflegt</t>
+  </si>
+  <si>
+    <t>unterwegs</t>
+  </si>
+  <si>
+    <t>verkrempf</t>
+  </si>
+  <si>
+    <t>verliebt</t>
+  </si>
+  <si>
+    <t>wählerisch</t>
+  </si>
+  <si>
+    <t>wahr</t>
+  </si>
+  <si>
+    <t>weit</t>
+  </si>
+  <si>
+    <t>wochenlang</t>
+  </si>
+  <si>
+    <t>zufällig</t>
+  </si>
+  <si>
+    <t>zufrieden</t>
+  </si>
+  <si>
+    <t>mít na sobě</t>
+  </si>
+  <si>
+    <t>vyzkoušet si</t>
+  </si>
+  <si>
+    <t>napadnout</t>
+  </si>
+  <si>
+    <t>vycestovat</t>
+  </si>
+  <si>
+    <t>potisknout</t>
+  </si>
+  <si>
+    <t>udělat dojem</t>
+  </si>
+  <si>
+    <t>pohybovat se</t>
+  </si>
+  <si>
+    <t>posoudit</t>
+  </si>
+  <si>
+    <t>vyžehlit</t>
+  </si>
+  <si>
+    <t>poznat</t>
+  </si>
+  <si>
+    <t>barvit</t>
+  </si>
+  <si>
+    <t>cítit</t>
+  </si>
+  <si>
+    <t>rozpakovat se</t>
+  </si>
+  <si>
+    <t>česat se</t>
+  </si>
+  <si>
+    <t>rozbít se</t>
+  </si>
+  <si>
+    <t>starat se o</t>
+  </si>
+  <si>
+    <t>přemýšlet</t>
+  </si>
+  <si>
+    <t>spálit</t>
+  </si>
+  <si>
+    <t>porovnat</t>
+  </si>
+  <si>
+    <t>opustit</t>
+  </si>
+  <si>
+    <t>schovat se</t>
+  </si>
+  <si>
+    <t>odříznout</t>
+  </si>
+  <si>
+    <t>přiznat</t>
+  </si>
+  <si>
+    <t>odstavec</t>
+  </si>
+  <si>
+    <t>vystupování</t>
+  </si>
+  <si>
+    <t>zevnějšek</t>
+  </si>
+  <si>
+    <t>vyzařování</t>
+  </si>
+  <si>
+    <t>bavlněná látka</t>
+  </si>
+  <si>
+    <t>tloustnutí</t>
+  </si>
+  <si>
+    <t>návrhář</t>
+  </si>
+  <si>
+    <t>čestnost</t>
+  </si>
+  <si>
+    <t>vznik</t>
+  </si>
+  <si>
+    <t>nehet</t>
+  </si>
+  <si>
+    <t>obličej</t>
+  </si>
+  <si>
+    <t>váha</t>
+  </si>
+  <si>
+    <t>velikost</t>
+  </si>
+  <si>
+    <t>obchodník</t>
+  </si>
+  <si>
+    <t>kůže</t>
+  </si>
+  <si>
+    <t>ochota pomoci</t>
+  </si>
+  <si>
+    <t>usmívání se</t>
+  </si>
+  <si>
+    <t>rtěnka</t>
+  </si>
+  <si>
+    <t>století</t>
+  </si>
+  <si>
+    <t>konkurence</t>
+  </si>
+  <si>
+    <t>zákaznice</t>
+  </si>
+  <si>
+    <t>modelka</t>
+  </si>
+  <si>
+    <t>sval</t>
+  </si>
+  <si>
+    <t>osobnost</t>
+  </si>
+  <si>
+    <t>culík</t>
+  </si>
+  <si>
+    <t>piha</t>
+  </si>
+  <si>
+    <t>rada</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>výloha</t>
+  </si>
+  <si>
+    <t>krejčí</t>
+  </si>
+  <si>
+    <t>krása</t>
+  </si>
+  <si>
+    <t>sebevědomí</t>
+  </si>
+  <si>
+    <t>sebehodnocení</t>
+  </si>
+  <si>
+    <t>kozačky</t>
+  </si>
+  <si>
+    <t>vysněné povolání</t>
+  </si>
+  <si>
+    <t>schůzka</t>
+  </si>
+  <si>
+    <t>chování</t>
+  </si>
+  <si>
+    <t>vzor</t>
+  </si>
+  <si>
+    <t>zub</t>
+  </si>
+  <si>
+    <t>nápadný</t>
+  </si>
+  <si>
+    <t>také</t>
+  </si>
+  <si>
+    <t>výrazný</t>
+  </si>
+  <si>
+    <t>prošlé</t>
+  </si>
+  <si>
+    <t>pohodlný</t>
+  </si>
+  <si>
+    <t>pokakaný</t>
+  </si>
+  <si>
+    <t>tlustý</t>
+  </si>
+  <si>
+    <t>venku</t>
+  </si>
+  <si>
+    <t>tenký</t>
+  </si>
+  <si>
+    <t>pravý</t>
+  </si>
+  <si>
+    <t>namyšlený</t>
+  </si>
+  <si>
+    <t>úzký</t>
+  </si>
+  <si>
+    <t>udivený</t>
+  </si>
+  <si>
+    <t>bez vrásek</t>
+  </si>
+  <si>
+    <t>vyparáděný</t>
+  </si>
+  <si>
+    <t>namalovaný</t>
+  </si>
+  <si>
+    <t>pruhovaný</t>
+  </si>
+  <si>
+    <t>zdravý</t>
+  </si>
+  <si>
+    <t>ošklivý</t>
+  </si>
+  <si>
+    <t>ochotný pomoci</t>
+  </si>
+  <si>
+    <t>vydatný</t>
+  </si>
+  <si>
+    <t>prospěšný</t>
+  </si>
+  <si>
+    <t>bohatý</t>
+  </si>
+  <si>
+    <t>čistý</t>
+  </si>
+  <si>
+    <t>štíhlý</t>
+  </si>
+  <si>
+    <t>špičatý</t>
+  </si>
+  <si>
+    <t>zářící</t>
+  </si>
+  <si>
+    <t>sladký</t>
+  </si>
+  <si>
+    <t>bezpodmínečný</t>
+  </si>
+  <si>
+    <t>neudržovaný</t>
+  </si>
+  <si>
+    <t>být na cestě</t>
+  </si>
+  <si>
+    <t>křečovitý</t>
+  </si>
+  <si>
+    <t>zamilovaný</t>
+  </si>
+  <si>
+    <t>vybíravý</t>
+  </si>
+  <si>
+    <t>pravdivý</t>
+  </si>
+  <si>
+    <t>daleký</t>
+  </si>
+  <si>
+    <t>trvající celé týdny</t>
+  </si>
+  <si>
+    <t>náhodou</t>
+  </si>
+  <si>
+    <t>spokojený</t>
+  </si>
+  <si>
+    <t>abhängen von</t>
+  </si>
+  <si>
+    <t>abnehmen</t>
+  </si>
+  <si>
+    <t>ausgeben</t>
+  </si>
+  <si>
+    <t>ausprobieren</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>sich begeistern</t>
+  </si>
+  <si>
+    <t>entdecken</t>
+  </si>
+  <si>
+    <t>sich entscheiden</t>
+  </si>
+  <si>
+    <t>entstehen</t>
+  </si>
+  <si>
+    <t>entwickeln</t>
+  </si>
+  <si>
+    <t>erfinden</t>
+  </si>
+  <si>
+    <t>erkennen an</t>
+  </si>
+  <si>
+    <t>gewinnen</t>
+  </si>
+  <si>
+    <t>herstellen</t>
+  </si>
+  <si>
+    <t>kämpfen um</t>
+  </si>
+  <si>
+    <t>kochen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>rollen</t>
+  </si>
+  <si>
+    <t>stattfinden</t>
+  </si>
+  <si>
+    <t>springen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>teilnehmen</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>variieren</t>
+  </si>
+  <si>
+    <t>veranstalten</t>
+  </si>
+  <si>
+    <t>veröffentlichen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>der Anfänger</t>
+  </si>
+  <si>
+    <t>der Armschützer</t>
+  </si>
+  <si>
+    <t>die Ausrüstung</t>
+  </si>
+  <si>
+    <t>der Beifall</t>
+  </si>
+  <si>
+    <t>die Brücke</t>
+  </si>
+  <si>
+    <t>der Erflog</t>
+  </si>
+  <si>
+    <t>die Ernährung</t>
+  </si>
+  <si>
+    <t>der Fan</t>
+  </si>
+  <si>
+    <t>das Fertggerich</t>
+  </si>
+  <si>
+    <t>das Gelenk</t>
+  </si>
+  <si>
+    <t>die Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>der Helm</t>
+  </si>
+  <si>
+    <t>der Kran</t>
+  </si>
+  <si>
+    <t>das Kuntstück</t>
+  </si>
+  <si>
+    <t>die Leistung</t>
+  </si>
+  <si>
+    <t>der Mutsprung</t>
+  </si>
+  <si>
+    <t>die Pflich</t>
+  </si>
+  <si>
+    <t>die Schutzkleidung</t>
+  </si>
+  <si>
+    <t>der Sportverein</t>
+  </si>
+  <si>
+    <t>der Sprung</t>
+  </si>
+  <si>
+    <t>der Sturz</t>
+  </si>
+  <si>
+    <t>das Übergewicht</t>
+  </si>
+  <si>
+    <t>die Umfrage</t>
+  </si>
+  <si>
+    <t>die Unterstutzung</t>
+  </si>
+  <si>
+    <t>die Veranstaltung</t>
+  </si>
+  <si>
+    <t>die Verletztung</t>
+  </si>
+  <si>
+    <t>die Verletzungsgefahr</t>
+  </si>
+  <si>
+    <t>der Vorschlag</t>
+  </si>
+  <si>
+    <t>die Voraussetzung</t>
+  </si>
+  <si>
+    <t>die Vorstellung</t>
+  </si>
+  <si>
+    <t>die Werbenkampagne</t>
+  </si>
+  <si>
+    <t>der Wettkampf</t>
+  </si>
+  <si>
+    <t>die Windstille</t>
+  </si>
+  <si>
+    <t>das Zubehör</t>
+  </si>
+  <si>
+    <t>záviset na</t>
+  </si>
+  <si>
+    <t>odečíst/zhubnout</t>
+  </si>
+  <si>
+    <t>nabízet</t>
+  </si>
+  <si>
+    <t>vydávat</t>
+  </si>
+  <si>
+    <t>vyzkoušet</t>
+  </si>
+  <si>
+    <t>stavět</t>
+  </si>
+  <si>
+    <t>nadchnout se</t>
+  </si>
+  <si>
+    <t>objevit</t>
+  </si>
+  <si>
+    <t>rozhodnout se</t>
+  </si>
+  <si>
+    <t>vzniknout</t>
+  </si>
+  <si>
+    <t>rozvíjet</t>
+  </si>
+  <si>
+    <t>vynalézt</t>
+  </si>
+  <si>
+    <t>vyhrát</t>
+  </si>
+  <si>
+    <t>vyrábět</t>
+  </si>
+  <si>
+    <t>bojovat</t>
+  </si>
+  <si>
+    <t>vyřit</t>
+  </si>
+  <si>
+    <t>řídit</t>
+  </si>
+  <si>
+    <t>zuřit</t>
+  </si>
+  <si>
+    <t>kutálet se</t>
+  </si>
+  <si>
+    <t>škodit</t>
+  </si>
+  <si>
+    <t>konat se</t>
+  </si>
+  <si>
+    <t>skákat</t>
+  </si>
+  <si>
+    <t>zřítit se</t>
+  </si>
+  <si>
+    <t>zúčastnit se</t>
+  </si>
+  <si>
+    <t>podporovat</t>
+  </si>
+  <si>
+    <t>dělat variace</t>
+  </si>
+  <si>
+    <t>zveřejnit</t>
+  </si>
+  <si>
+    <t>vážit</t>
+  </si>
+  <si>
+    <t>začátečník</t>
+  </si>
+  <si>
+    <t>chránič</t>
+  </si>
+  <si>
+    <t>výbava</t>
+  </si>
+  <si>
+    <t>potlesk</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>úspěch</t>
+  </si>
+  <si>
+    <t>výživa</t>
+  </si>
+  <si>
+    <t>fanoušek</t>
+  </si>
+  <si>
+    <t>hotové jídlo</t>
+  </si>
+  <si>
+    <t>kotník</t>
+  </si>
+  <si>
+    <t>rychlost</t>
+  </si>
+  <si>
+    <t>helma</t>
+  </si>
+  <si>
+    <t>jeřáb</t>
+  </si>
+  <si>
+    <t>umělecké dílo</t>
+  </si>
+  <si>
+    <t>výkon/výsledek</t>
+  </si>
+  <si>
+    <t>skok odvahy</t>
+  </si>
+  <si>
+    <t>povinnost</t>
+  </si>
+  <si>
+    <t>ochranné oblečení</t>
+  </si>
+  <si>
+    <t>sportovní spolek</t>
+  </si>
+  <si>
+    <t>skok</t>
+  </si>
+  <si>
+    <t>zřícený</t>
+  </si>
+  <si>
+    <t>nadváha</t>
+  </si>
+  <si>
+    <t>anketa</t>
+  </si>
+  <si>
+    <t>podpora</t>
+  </si>
+  <si>
+    <t>akce</t>
+  </si>
+  <si>
+    <t>zranění</t>
+  </si>
+  <si>
+    <t>nebezpečí zranění</t>
+  </si>
+  <si>
+    <t>návrh</t>
+  </si>
+  <si>
+    <t>předpoklad</t>
+  </si>
+  <si>
+    <t>představa</t>
+  </si>
+  <si>
+    <t>reklamní kampaň</t>
+  </si>
+  <si>
+    <t>zápas</t>
+  </si>
+  <si>
+    <t>bezvětří</t>
+  </si>
+  <si>
+    <t>příslušenství</t>
+  </si>
+  <si>
+    <t>allerdings</t>
+  </si>
+  <si>
+    <t>ostatně</t>
+  </si>
+  <si>
+    <t>anstregend</t>
+  </si>
+  <si>
+    <t>namáhavé</t>
+  </si>
+  <si>
+    <t>bekannt</t>
+  </si>
+  <si>
+    <t>známý</t>
+  </si>
+  <si>
+    <t>beliebt</t>
+  </si>
+  <si>
+    <t>oblíbený</t>
+  </si>
+  <si>
+    <t>silný</t>
+  </si>
+  <si>
+    <t>empfindlich</t>
+  </si>
+  <si>
+    <t>choulostivý</t>
+  </si>
+  <si>
+    <t>erstmalig</t>
+  </si>
+  <si>
+    <t>jedinkrát</t>
+  </si>
+  <si>
+    <t>erwachsen</t>
+  </si>
+  <si>
+    <t>dospělý</t>
+  </si>
+  <si>
+    <t>hart</t>
+  </si>
+  <si>
+    <t>tvrdý</t>
+  </si>
+  <si>
+    <t>mittlerweile</t>
+  </si>
+  <si>
+    <t>mezitím</t>
+  </si>
+  <si>
+    <t>möglicherweise</t>
+  </si>
+  <si>
+    <t>možná</t>
+  </si>
+  <si>
+    <t>mutig</t>
+  </si>
+  <si>
+    <t>statečný</t>
+  </si>
+  <si>
+    <t>öffentlich</t>
+  </si>
+  <si>
+    <t>veřejný</t>
+  </si>
+  <si>
+    <t>regelmässig</t>
+  </si>
+  <si>
+    <t>pravidelný</t>
+  </si>
+  <si>
+    <t>steil</t>
+  </si>
+  <si>
+    <t>příkrý</t>
+  </si>
+  <si>
+    <t>ungefähr</t>
+  </si>
+  <si>
+    <t>asi</t>
+  </si>
+  <si>
+    <t>unterschiedlich</t>
+  </si>
+  <si>
+    <t>rozdílný</t>
+  </si>
+  <si>
+    <t>mít odbyt</t>
+  </si>
+  <si>
+    <t>absolvovat</t>
+  </si>
+  <si>
+    <t>přihlásit se</t>
+  </si>
+  <si>
+    <t>půjčit si</t>
+  </si>
+  <si>
+    <t>poradit</t>
+  </si>
+  <si>
+    <t>umožnit</t>
+  </si>
+  <si>
+    <t>nechat spadnout</t>
+  </si>
+  <si>
+    <t>mít platnost</t>
+  </si>
+  <si>
+    <t>pucovat</t>
+  </si>
+  <si>
+    <t>zůstat sedět</t>
+  </si>
+  <si>
+    <t>spojit</t>
+  </si>
+  <si>
+    <t>nakupovat</t>
+  </si>
+  <si>
+    <t>představit si</t>
+  </si>
+  <si>
+    <t>volit</t>
+  </si>
+  <si>
+    <t>mýt</t>
+  </si>
+  <si>
+    <t>vyměnit</t>
+  </si>
+  <si>
+    <t>průběh</t>
+  </si>
+  <si>
+    <t>závěrečné vysvědčení</t>
+  </si>
+  <si>
+    <t>požadavek</t>
+  </si>
+  <si>
+    <t>pracovní úřad</t>
+  </si>
+  <si>
+    <t>lékař</t>
+  </si>
+  <si>
+    <t>vzdělání</t>
+  </si>
+  <si>
+    <t>studující</t>
+  </si>
+  <si>
+    <t>porada</t>
+  </si>
+  <si>
+    <t>povolání</t>
+  </si>
+  <si>
+    <t>poradce</t>
+  </si>
+  <si>
+    <t>zaměstnání</t>
+  </si>
+  <si>
+    <t>doprovod</t>
+  </si>
+  <si>
+    <t>závod/provoz</t>
+  </si>
+  <si>
+    <t>přihláška</t>
+  </si>
+  <si>
+    <t>doba trvání</t>
+  </si>
+  <si>
+    <t>vozidlo</t>
+  </si>
+  <si>
+    <t>krajinná oblast</t>
+  </si>
+  <si>
+    <t>základní škola</t>
+  </si>
+  <si>
+    <t>ročník</t>
+  </si>
+  <si>
+    <t>nemoc</t>
+  </si>
+  <si>
+    <t>učňovské místo</t>
+  </si>
+  <si>
+    <t>střední vzdělání</t>
+  </si>
+  <si>
+    <t>vyšší stupeň</t>
+  </si>
+  <si>
+    <t>zkouška</t>
+  </si>
+  <si>
+    <t>šprt</t>
+  </si>
+  <si>
+    <t>zásluha</t>
+  </si>
+  <si>
+    <t>plán uhrazení</t>
+  </si>
+  <si>
+    <t>zpoždení</t>
+  </si>
+  <si>
+    <t>volba</t>
+  </si>
+  <si>
+    <t>nářadí</t>
+  </si>
+  <si>
+    <t>dílna</t>
+  </si>
+  <si>
+    <t>vysvědčení</t>
+  </si>
+  <si>
+    <t>konečný</t>
+  </si>
+  <si>
+    <t>pilný</t>
+  </si>
+  <si>
+    <t>útulný</t>
+  </si>
+  <si>
+    <t>zákonný</t>
+  </si>
+  <si>
+    <t>nemocný</t>
+  </si>
+  <si>
+    <t>hlasitý</t>
+  </si>
+  <si>
+    <t>potichu</t>
+  </si>
+  <si>
+    <t>včas</t>
+  </si>
+  <si>
+    <t>stacionární</t>
+  </si>
+  <si>
+    <t>celé hodiny</t>
+  </si>
+  <si>
+    <t>zodpovědný</t>
+  </si>
+  <si>
+    <t>použitelný</t>
+  </si>
+  <si>
+    <t>budoucí</t>
+  </si>
+  <si>
+    <t>abgehen</t>
+  </si>
+  <si>
+    <t>absolvieren</t>
+  </si>
+  <si>
+    <t>sich anmelden</t>
+  </si>
+  <si>
+    <t>sich ausliehen</t>
+  </si>
+  <si>
+    <t>beraten</t>
+  </si>
+  <si>
+    <t>sich entscheiden für</t>
+  </si>
+  <si>
+    <t>eröglichen</t>
+  </si>
+  <si>
+    <t>fallen lassen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>jobben</t>
+  </si>
+  <si>
+    <t>putzen</t>
+  </si>
+  <si>
+    <t>sitzen bleiben</t>
+  </si>
+  <si>
+    <t>verbieren</t>
+  </si>
+  <si>
+    <t>verkaufen</t>
+  </si>
+  <si>
+    <t>sich vorstellen</t>
+  </si>
+  <si>
+    <t>waschen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>der Ablauf</t>
+  </si>
+  <si>
+    <t>das Abschlusszeugnis</t>
+  </si>
+  <si>
+    <t>die Anforderung</t>
+  </si>
+  <si>
+    <t>das Arbeitsamt</t>
+  </si>
+  <si>
+    <t>der Artz</t>
+  </si>
+  <si>
+    <t>die Ausbildung</t>
+  </si>
+  <si>
+    <t>der Auszubildende</t>
+  </si>
+  <si>
+    <t>die Beratung</t>
+  </si>
+  <si>
+    <t>der Beruf</t>
+  </si>
+  <si>
+    <t>der Berufsberater</t>
+  </si>
+  <si>
+    <t>die Beschäftigung</t>
+  </si>
+  <si>
+    <t>der Betreuer</t>
+  </si>
+  <si>
+    <t>der Betrieb</t>
+  </si>
+  <si>
+    <t>die Bewerbung</t>
+  </si>
+  <si>
+    <t>die Dauer</t>
+  </si>
+  <si>
+    <t>das Fahrzeug</t>
+  </si>
+  <si>
+    <t>die Gegend</t>
+  </si>
+  <si>
+    <t>die Grundschule</t>
+  </si>
+  <si>
+    <t>die Jahrgangstuffe</t>
+  </si>
+  <si>
+    <t>die Krankheit</t>
+  </si>
+  <si>
+    <t>die Lehrstelle</t>
+  </si>
+  <si>
+    <t>die mittlere Reife</t>
+  </si>
+  <si>
+    <t>die Oberstufe</t>
+  </si>
+  <si>
+    <t>die Prüfung</t>
+  </si>
+  <si>
+    <t>der Streber</t>
+  </si>
+  <si>
+    <t>der Verdienst</t>
+  </si>
+  <si>
+    <t>die Vergütung</t>
+  </si>
+  <si>
+    <t>die Verspätung</t>
+  </si>
+  <si>
+    <t>die Vorraussetzung</t>
+  </si>
+  <si>
+    <t>die Wahl</t>
+  </si>
+  <si>
+    <t>das Werkzeug</t>
+  </si>
+  <si>
+    <t>die Werkstatt</t>
+  </si>
+  <si>
+    <t>das Zeugniss</t>
+  </si>
+  <si>
+    <t>endgültig</t>
+  </si>
+  <si>
+    <t>fleissig</t>
+  </si>
+  <si>
+    <t>gemütlich</t>
+  </si>
+  <si>
+    <t>gesetzlich</t>
+  </si>
+  <si>
+    <t>krank</t>
+  </si>
+  <si>
+    <t>laut</t>
+  </si>
+  <si>
+    <t>leise</t>
+  </si>
+  <si>
+    <t>rechtzeitig</t>
+  </si>
+  <si>
+    <t>stationär</t>
+  </si>
+  <si>
+    <t>stundenlang</t>
+  </si>
+  <si>
+    <t>verantwortlich</t>
+  </si>
+  <si>
+    <t>verfügbar</t>
+  </si>
+  <si>
+    <t>zukünftig</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +2101,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,17 +2135,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální 2" xfId="1" xr:uid="{7914CBAF-996D-40CF-ACBA-5473B2AF59DF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,297 +2457,237 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
+      <c r="A4" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="A5" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
+      <c r="A8" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
+      <c r="A9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
+      <c r="A10" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
+      <c r="A11" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
+      <c r="A12" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
+      <c r="A13" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+      <c r="A14" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
+      <c r="A15" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
+      <c r="A16" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
+      <c r="A18" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
+      <c r="A19" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
+      <c r="A20" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
+      <c r="A21" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
+      <c r="A23" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
+      <c r="A24" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
+      <c r="A26" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
+      <c r="A27" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>99</v>
@@ -1288,10 +2695,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>99</v>
@@ -1299,65 +2706,56 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
+      <c r="A31" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
+      <c r="A33" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
+      <c r="A34" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
         <v>99</v>
@@ -1365,10 +2763,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
         <v>99</v>
@@ -1376,109 +2774,91 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
+      <c r="A38" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
+      <c r="A39" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
+      <c r="A41" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
+      <c r="A42" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
+      <c r="A43" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>99</v>
+      <c r="A45" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>99</v>
@@ -1486,10 +2866,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
         <v>99</v>
@@ -1497,87 +2877,72 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
+      <c r="A49" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
+      <c r="A50" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
+      <c r="A51" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
+      <c r="A53" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" t="s">
-        <v>99</v>
+      <c r="A54" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>99</v>
@@ -1585,197 +2950,158 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
+      <c r="A57" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" t="s">
-        <v>99</v>
+      <c r="A58" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
+      <c r="A60" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
+      <c r="A61" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
+      <c r="A62" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
+      <c r="A63" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" t="s">
-        <v>99</v>
+      <c r="A64" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
+      <c r="A65" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
+      <c r="A66" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
+      <c r="A67" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" t="s">
-        <v>99</v>
+      <c r="A69" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" t="s">
-        <v>99</v>
+      <c r="A71" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" t="s">
-        <v>99</v>
+      <c r="A72" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
         <v>99</v>
@@ -1783,109 +3109,88 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" t="s">
-        <v>99</v>
+      <c r="A75" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>99</v>
+      <c r="A76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" t="s">
-        <v>99</v>
+      <c r="A77" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>99</v>
+      <c r="A78" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>99</v>
+      <c r="A80" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" t="s">
-        <v>99</v>
+      <c r="A81" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
+      <c r="A82" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
         <v>99</v>
@@ -1893,72 +3198,2246 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" t="s">
-        <v>99</v>
+      <c r="A85" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>178</v>
+      </c>
+      <c r="C134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>52</v>
+      </c>
+      <c r="C135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>103</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>67</v>
+      </c>
+      <c r="B169" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>84</v>
+      </c>
+      <c r="B181" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182" t="s">
+        <v>150</v>
+      </c>
+      <c r="C182" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>120</v>
+      </c>
+      <c r="B185" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>95</v>
+      </c>
+      <c r="B186" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>117</v>
+      </c>
+      <c r="B197" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>75</v>
+      </c>
+      <c r="B200" t="s">
+        <v>76</v>
+      </c>
+      <c r="C200" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>122</v>
+      </c>
+      <c r="B202" t="s">
+        <v>160</v>
+      </c>
+      <c r="C202" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>158</v>
+      </c>
+      <c r="B205" t="s">
+        <v>159</v>
+      </c>
+      <c r="C205" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>138</v>
+      </c>
+      <c r="B208" t="s">
+        <v>176</v>
+      </c>
+      <c r="C208" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>57</v>
+      </c>
+      <c r="B209" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>129</v>
+      </c>
+      <c r="B217" t="s">
+        <v>167</v>
+      </c>
+      <c r="C217" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>89</v>
+      </c>
+      <c r="B219" t="s">
+        <v>90</v>
+      </c>
+      <c r="C219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>71</v>
+      </c>
+      <c r="B220" t="s">
+        <v>72</v>
+      </c>
+      <c r="C220" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>135</v>
+      </c>
+      <c r="B222" t="s">
+        <v>173</v>
+      </c>
+      <c r="C222" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>136</v>
+      </c>
+      <c r="B228" t="s">
+        <v>174</v>
+      </c>
+      <c r="C228" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>53</v>
+      </c>
+      <c r="B230" t="s">
+        <v>54</v>
+      </c>
+      <c r="C230" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>32</v>
+      </c>
+      <c r="B234" t="s">
+        <v>33</v>
+      </c>
+      <c r="C234" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>93</v>
+      </c>
+      <c r="B241" t="s">
+        <v>100</v>
+      </c>
+      <c r="C241" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>49</v>
+      </c>
+      <c r="B248" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>106</v>
+      </c>
+      <c r="B252" t="s">
+        <v>94</v>
+      </c>
+      <c r="C252" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>80</v>
+      </c>
+      <c r="B254" t="s">
+        <v>81</v>
+      </c>
+      <c r="C254" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>139</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B264" t="s">
         <v>177</v>
       </c>
-      <c r="C86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>140</v>
-      </c>
-      <c r="B87" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>99</v>
+      <c r="C264" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>59</v>
+      </c>
+      <c r="B268" t="s">
+        <v>60</v>
+      </c>
+      <c r="C268" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>134</v>
+      </c>
+      <c r="B269" t="s">
+        <v>172</v>
+      </c>
+      <c r="C269" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>97</v>
+      </c>
+      <c r="B270" t="s">
+        <v>98</v>
+      </c>
+      <c r="C270" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>126</v>
+      </c>
+      <c r="B276" t="s">
+        <v>164</v>
+      </c>
+      <c r="C276" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>133</v>
+      </c>
+      <c r="B285" t="s">
+        <v>171</v>
+      </c>
+      <c r="C285" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>77</v>
+      </c>
+      <c r="B301" t="s">
+        <v>78</v>
+      </c>
+      <c r="C301" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>107</v>
+      </c>
+      <c r="B307" t="s">
+        <v>143</v>
+      </c>
+      <c r="C307" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>113</v>
+      </c>
+      <c r="B314" t="s">
+        <v>149</v>
+      </c>
+      <c r="C314" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>91</v>
+      </c>
+      <c r="B320" t="s">
+        <v>92</v>
+      </c>
+      <c r="C320" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>111</v>
+      </c>
+      <c r="B328" t="s">
+        <v>147</v>
+      </c>
+      <c r="C328" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>119</v>
+      </c>
+      <c r="B329" t="s">
+        <v>155</v>
+      </c>
+      <c r="C329" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>123</v>
+      </c>
+      <c r="B330" t="s">
+        <v>161</v>
+      </c>
+      <c r="C330" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" t="s">
+        <v>16</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C340">
+      <sortCondition ref="A1:A50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Words.xlsx
+++ b/Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatlabWorkSpace\NJLearner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE88D185-3C7E-495B-A57E-48E7DD654121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0511EC-6AE2-422F-AEE7-CB73F801B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$C$340</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -521,9 +521,6 @@
     <t>enden</t>
   </si>
   <si>
-    <t>aufpasen</t>
-  </si>
-  <si>
     <t>sollen</t>
   </si>
   <si>
@@ -2076,6 +2073,9 @@
   </si>
   <si>
     <t>zukünftig</t>
+  </si>
+  <si>
+    <t>aufpassen</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,31 +2478,31 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2513,76 +2514,76 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,36 +2597,36 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,20 +2640,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,26 +2661,26 @@
         <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2687,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>663</v>
       </c>
       <c r="C28" t="s">
         <v>99</v>
@@ -2715,12 +2716,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,20 +2735,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,7 +2756,7 @@
         <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
         <v>99</v>
@@ -2766,7 +2767,7 @@
         <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
         <v>99</v>
@@ -2783,20 +2784,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,28 +2811,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,18 +2840,18 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,28 +2887,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,26 +2916,26 @@
         <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,7 +2949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2959,20 +2960,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,71 +2987,71 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3061,12 +3062,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,20 +3081,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,42 +3113,42 @@
         <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,28 +3162,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,7 +3191,7 @@
         <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
         <v>99</v>
@@ -3207,12 +3208,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3226,84 +3227,84 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3311,34 +3312,34 @@
         <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3352,60 +3353,60 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3413,42 +3414,42 @@
         <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C109" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,7 +3457,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
         <v>99</v>
@@ -3467,50 +3468,50 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3540,45 +3541,45 @@
         <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3600,20 +3601,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,18 +3622,18 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,7 +3641,7 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
         <v>99</v>
@@ -3662,58 +3663,58 @@
         <v>130</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,122 +3722,122 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C143" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3850,44 +3851,44 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,36 +3902,36 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,36 +3945,36 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,34 +3993,34 @@
         <v>132</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C175" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,12 +4034,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4057,26 +4058,26 @@
         <v>114</v>
       </c>
       <c r="B182" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C182" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4084,7 +4085,7 @@
         <v>120</v>
       </c>
       <c r="B185" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C185" t="s">
         <v>99</v>
@@ -4101,84 +4102,84 @@
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,26 +4187,26 @@
         <v>117</v>
       </c>
       <c r="B197" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C197" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,12 +4220,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,18 +4233,18 @@
         <v>122</v>
       </c>
       <c r="B202" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C202" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,29 +4260,29 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" t="s">
         <v>158</v>
       </c>
-      <c r="B205" t="s">
-        <v>159</v>
-      </c>
       <c r="C205" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +4290,7 @@
         <v>138</v>
       </c>
       <c r="B208" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C208" t="s">
         <v>99</v>
@@ -4306,60 +4307,60 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4367,13 +4368,13 @@
         <v>129</v>
       </c>
       <c r="B217" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C217" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -4406,12 +4407,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,50 +4420,50 @@
         <v>135</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C222" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4470,18 +4471,18 @@
         <v>136</v>
       </c>
       <c r="B228" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C228" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4495,28 +4496,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4530,52 +4531,52 @@
         <v>99</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,52 +4590,52 @@
         <v>99</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,28 +4649,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,12 +4684,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4702,76 +4703,76 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4779,34 +4780,34 @@
         <v>139</v>
       </c>
       <c r="B264" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C264" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4825,7 +4826,7 @@
         <v>134</v>
       </c>
       <c r="B269" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C269" t="s">
         <v>99</v>
@@ -4842,44 +4843,44 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,74 +4888,74 @@
         <v>126</v>
       </c>
       <c r="B276" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C276" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -4962,130 +4963,130 @@
         <v>133</v>
       </c>
       <c r="B285" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C285" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,44 +5100,44 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -5150,52 +5151,52 @@
         <v>99</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,50 +5204,50 @@
         <v>113</v>
       </c>
       <c r="B314" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C314" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -5260,60 +5261,60 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,7 +5322,7 @@
         <v>111</v>
       </c>
       <c r="B328" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C328" t="s">
         <v>99</v>
@@ -5332,7 +5333,7 @@
         <v>119</v>
       </c>
       <c r="B329" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C329" t="s">
         <v>99</v>
@@ -5343,85 +5344,85 @@
         <v>123</v>
       </c>
       <c r="B330" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C330" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="B336" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -5433,7 +5434,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:C340" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="verbs"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C340">
       <sortCondition ref="A1:A50"/>
     </sortState>
